--- a/Benchmark/YNQ_Benchmark/color.xlsx
+++ b/Benchmark/YNQ_Benchmark/color.xlsx
@@ -298,7 +298,7 @@
     <t>Does the bird in the picture have brown tail?</t>
   </si>
   <si>
-    <t>Is the primary color of the trees in the picture yellow?</t>
+    <t>Is the main color of the trees in the picture yellow?</t>
   </si>
   <si>
     <t>Are the bird's wings green in color in the picture?</t>
